--- a/medicine/Handicap/Shunkinshō/Shunkinshō.xlsx
+++ b/medicine/Handicap/Shunkinshō/Shunkinshō.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Shunkinsh%C5%8D</t>
+          <t>Shunkinshō</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shunkinshō (春琴抄?, litt. Un portrait de Shunkin) est un film japonais, réalisé par Katsumi Nishikawa et sorti en 1976. Il est basé sur un roman court de Jun'ichirō Tanizaki.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shunkinsh%C5%8D</t>
+          <t>Shunkinshō</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé à Osaka au XIXe siècle, le film raconte l'histoire d'un amour entre Sasuke (Miura) et Shunkin, son professeur de koto (Yamaguchi), qui a perdu la vue à l'âge de neuf ans. Sa cécité donne à Shunkin une extraordinaire capacité de jouer des instruments traditionnels japonais, le shamisen et le koto, plus sophistiqué. Elle est une musicienne de renom et donne aussi des leçons de musique.
 Le film est aussi une étude psychologique de Shunkin et du combat d'une jeune femme consciente de l'existence d'une vie dont elle ne fera jamais l'expérience. Sa vie prend un tournant lorsqu'elle accepte d'apprendre à jouer de la musique à un jeune homme (Sasuke). Il est à la fois son élève et son serviteur. Sasuke cherche à plaire à Shunkin de toutes les facons possibles, mais il provoque son courroux quand elle découvre qu'il essaie de jouer avec les yeux fermés, car cela lui rappelle sa propre condition. Les deux personnages développent une relation romantique unique et mélancolique. En dépit de la résistance de Shunkin , ils sont de plus en plus attirés l'un par l'autre. Shunkin est au courant des sentiments de Sasuke, mais ne veut pas les accepter. Cependant, inconsciemment, elle ne peut vivre sans son amour.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Shunkinsh%C5%8D</t>
+          <t>Shunkinshō</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Shunkinshō (春琴抄?)
 Réalisation : Katsumi Nishikawa
@@ -559,9 +575,9 @@
 Langue originale : japonais
 Format : couleur — 1,85:1 — 35 mm — son mono
 Genre : drame
-Durée : 97 minutes[1]
+Durée : 97 minutes
 Dates de sortie :
-Japon : 25 décembre 1976[1]</t>
+Japon : 25 décembre 1976</t>
         </is>
       </c>
     </row>
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Shunkinsh%C5%8D</t>
+          <t>Shunkinshō</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Momoe Yamaguchi : Okoto/Shunkin
 Tomokazu Miura (ja) : Sasuke
@@ -611,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Shunkinsh%C5%8D</t>
+          <t>Shunkinshō</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,13 +647,15 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La nouvelle de Jun'ichirō Tanizaki a été adaptée plusieurs fois au cinéma :
 1935 : Okoto et Sasuke (春琴抄 お琴と佐助, Shunkinshō: Okoto to Sasuke?) de Yasujirō Shimazu avec Kinuyo Tanaka (Otoko / Shunkin) et Kōkichi Takada (Sasuke)
-1954 : L'Histoire de Shunkin (春琴物語, Shunkin monogatari?) de Daisuke Itō avec Machiko Kyō (Otoko / Shunkin)[2]
-1961 : Okoto et Sasuke (お琴と佐助, Okoto to Sasuke?) de Teinosuke Kinugasa avec Fujiko Yamamoto (Otoko / Shunkin) et Kōjirō Hongō (Sasuke)[3]
-2008 : Shunkinshō (春琴抄?) de Satoshi Kaneda avec Nao Nagasawa (Okoto / Shunkin) et Takumi Saitō (Sasuke)[4]</t>
+1954 : L'Histoire de Shunkin (春琴物語, Shunkin monogatari?) de Daisuke Itō avec Machiko Kyō (Otoko / Shunkin)
+1961 : Okoto et Sasuke (お琴と佐助, Okoto to Sasuke?) de Teinosuke Kinugasa avec Fujiko Yamamoto (Otoko / Shunkin) et Kōjirō Hongō (Sasuke)
+2008 : Shunkinshō (春琴抄?) de Satoshi Kaneda avec Nao Nagasawa (Okoto / Shunkin) et Takumi Saitō (Sasuke)</t>
         </is>
       </c>
     </row>
